--- a/blotter/blotter_t2.xlsx
+++ b/blotter/blotter_t2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkDoucuments\CmdtyOTC\blotter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12375" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="fut" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="dig_ntl" sheetId="3" r:id="rId5"/>
     <sheet name="notes" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>ticker</t>
   </si>
@@ -94,6 +99,196 @@
   </si>
   <si>
     <t>notional</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tyle</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ettle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_curncy</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote_curncy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180302-CICC-ABC-AU9999-CON-C-181-2</t>
+  </si>
+  <si>
+    <t>20180302-CICC-ABC-AU9999-CON-C-181-1</t>
+  </si>
+  <si>
+    <t>20180207-SYPZ-A46-AU1806-Dig-P-28</t>
+  </si>
+  <si>
+    <t>20180207-SYPZ-A45-AU1806-Dig-C-28</t>
+  </si>
+  <si>
+    <t>20180119-CICC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20180112-CICC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20180105-CICC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20180105-CICC-ABC-AU9999-CON-C-90</t>
+  </si>
+  <si>
+    <t>20180103-CICC-ABC-AU9999-CON-C-90</t>
+  </si>
+  <si>
+    <t>20171229-CICC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20171229-CICC-ABC-AU9999-CON-C-90</t>
+  </si>
+  <si>
+    <t>20171220-CICC-ZY5H-AU9999-CON-C-175</t>
+  </si>
+  <si>
+    <t>20171208-CICC-ABC-AU9999-CON-C-179</t>
+  </si>
+  <si>
+    <t>20171129-CICC-ZY5H-AU9999-CON-C-175</t>
+  </si>
+  <si>
+    <t>20171117-CICC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20171101-CICC-ZY5H-AU9999-CON-C-175</t>
+  </si>
+  <si>
+    <t>20171011-CICC-ZY5H-AU9999-CON-C-175</t>
+  </si>
+  <si>
+    <t>20170920-CICC-ZY5H-AU9999-CON-C-175</t>
+  </si>
+  <si>
+    <t>20170830-CICC-ZY5H-AU9999-CON-C-168</t>
+  </si>
+  <si>
+    <t>20170823-CICC-ZY5H-AU9999-CON-C-168</t>
+  </si>
+  <si>
+    <t>20170809-CICC-EDS-000300-CON-C-28</t>
+  </si>
+  <si>
+    <t>20170809-CICC-ZY5H-000300-CON-C-28</t>
+  </si>
+  <si>
+    <t>20170803-CICC-HBYH-000300-CON-C-55</t>
+  </si>
+  <si>
+    <t>20170803-CICC-HBYH-000300-CON-P-55</t>
+  </si>
+  <si>
+    <t>20170802-CICC-ZYGJ-AU9999-CON-C-175</t>
+  </si>
+  <si>
+    <t>20170628-CICC-EDS-000300-CON-P-76</t>
+  </si>
+  <si>
+    <t>20170628-CICC-EDS-000300-CON-C-76</t>
+  </si>
+  <si>
+    <t>20170628-CICC-HBYH-000300-CON-P-76</t>
+  </si>
+  <si>
+    <t>20170628-CICC-HBYH-000300-CON-C-76</t>
+  </si>
+  <si>
+    <t>20170609-CICC-HTCC-SR709-CON-P-24</t>
+  </si>
+  <si>
+    <t>20170602-CICC-LC-ABC-AU9999-CON-C-179</t>
+  </si>
+  <si>
+    <t>20170503-CICC-LC-ABC-AU9999-CON-C-62-L2</t>
+  </si>
+  <si>
+    <t>20170503-CICC-LC-ABC-AU9999-CON-C-62-L1</t>
+  </si>
+  <si>
+    <t>20170406-CICC-LC-ABC-SR709-CON-C-90</t>
+  </si>
+  <si>
+    <t>20170317-CICC-LC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20161110-CICC-LC-ABC-AU9999-CON-C-90</t>
+  </si>
+  <si>
+    <t>20161110-CICC-LC-ABC-AU9999-CON-C-90_2</t>
+  </si>
+  <si>
+    <t>20161104-CICC-LC-ABC-AU9999-CON-C-181</t>
+  </si>
+  <si>
+    <t>20160908-CICC-LC-ABC-AU9999-CON-C-90_2</t>
+  </si>
+  <si>
+    <t>20160908-CICC-LC-ABC-AU9999-CON-C-90</t>
+  </si>
+  <si>
+    <t>20160908-CICC-LC-ABC-AU9999-CON-C-62</t>
+  </si>
+  <si>
+    <t>20160908-CICC-LC-ABC-AU9999-CON-C-34</t>
+  </si>
+  <si>
+    <t>au9999</t>
+  </si>
+  <si>
+    <t>000300</t>
+  </si>
+  <si>
+    <t>sr709</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>sr</t>
   </si>
 </sst>
 </file>
@@ -101,28 +296,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,7 +318,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -139,6 +342,13 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,39 +370,43 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="千位分隔 2" xfId="7"/>
-    <cellStyle name="千位分隔 3" xfId="8"/>
+    <cellStyle name="百分比 2" xfId="9"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 25" xfId="2"/>
@@ -202,7 +416,8 @@
     <cellStyle name="常规 25 5" xfId="11"/>
     <cellStyle name="常规 25 6" xfId="12"/>
     <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="百分比 2" xfId="9"/>
+    <cellStyle name="千位分隔 2" xfId="7"/>
+    <cellStyle name="千位分隔 3" xfId="8"/>
   </cellStyles>
   <dxfs count="28">
     <dxf>
@@ -534,12 +749,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,7 +799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,7 +834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,14 +1049,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -858,7 +1076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -867,6 +1085,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -879,16 +1098,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -914,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -923,6 +1142,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -935,31 +1155,31 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="4.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,6 +1245,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1034,34 +1255,34 @@
   <dimension ref="B2:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="4.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1127,18 +1348,1644 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43161.625</v>
+      </c>
+      <c r="G3" s="5">
+        <v>43340.625</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3+2</f>
+        <v>43342.625</v>
+      </c>
+      <c r="I3" s="5">
+        <f>G3</f>
+        <v>43340.625</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43161.625</v>
+      </c>
+      <c r="G4" s="5">
+        <v>43340.625</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H44" si="0">G4+2</f>
+        <v>43342.625</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I44" si="1">G4</f>
+        <v>43340.625</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43138.625</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43166.625</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>43168.625</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>43166.625</v>
+      </c>
+      <c r="J5">
+        <v>0.99</v>
+      </c>
+      <c r="L5">
+        <v>272.3</v>
+      </c>
+      <c r="M5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43138.625</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43166.625</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>43168.625</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>43166.625</v>
+      </c>
+      <c r="J6">
+        <v>1.01</v>
+      </c>
+      <c r="L6">
+        <v>272.3</v>
+      </c>
+      <c r="M6">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43119.625</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43298.625</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>43300.625</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>43298.625</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43112.625</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43291.625</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>43293.625</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>43291.625</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>278.38</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43105.625</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43284.625</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>43286.625</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>43284.625</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>276.25</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43105.625</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43193.625</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>43195.625</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
+        <v>43193.625</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>276.25</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43103.625</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43189.625</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>43191.625</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>43189.625</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>276</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43098.625</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43277.625</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>43279.625</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>43277.625</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>273</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43098.625</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43186.625</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>43188.625</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>43186.625</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>273</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43089.625</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43264.625</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>43266.625</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
+        <v>43264.625</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>270.68</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43077.625</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43256.625</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>43258.625</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>43256.625</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>267.79000000000002</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43068.625</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43243.625</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>43245.625</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>43243.625</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>276.2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43056.625</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43235.625</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>43237.625</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
+        <v>43235.625</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>274.85000000000002</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43040.625</v>
+      </c>
+      <c r="G18" s="5">
+        <v>43215.625</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>43217.625</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
+        <v>43215.625</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>273.45</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43019.625</v>
+      </c>
+      <c r="G19" s="5">
+        <v>43194.625</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>43196.625</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
+        <v>43194.625</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42998.625</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43173.625</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>43175.625</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>43173.625</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>278.66000000000003</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>42977.625</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43145.625</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>43147.625</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="1"/>
+        <v>43145.625</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>278</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>42970.625</v>
+      </c>
+      <c r="G22" s="5">
+        <v>43138.625</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>43140.625</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>43138.625</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>277</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>42956.625</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42984.625</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>42986.625</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>42984.625</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>3731.04</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>42956.625</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42984.625</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
+        <v>42986.625</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="1"/>
+        <v>42984.625</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>3731.04</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>42950.625</v>
+      </c>
+      <c r="G25" s="5">
+        <v>43003.625</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>43005.625</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="1"/>
+        <v>43003.625</v>
+      </c>
+      <c r="J25">
+        <v>0.98</v>
+      </c>
+      <c r="L25">
+        <v>3727.83</v>
+      </c>
+      <c r="M25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>42950.625</v>
+      </c>
+      <c r="G26" s="5">
+        <v>43003.625</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>43005.625</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="1"/>
+        <v>43003.625</v>
+      </c>
+      <c r="J26">
+        <v>1.01</v>
+      </c>
+      <c r="L26">
+        <v>3727.83</v>
+      </c>
+      <c r="M26">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>42949.625</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43124.625</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>43126.625</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="1"/>
+        <v>43124.625</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>274.8</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>42914.625</v>
+      </c>
+      <c r="G28" s="5">
+        <v>42990.625</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>42992.625</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="1"/>
+        <v>42990.625</v>
+      </c>
+      <c r="J28">
+        <v>1.01</v>
+      </c>
+      <c r="L28">
+        <v>3646.17</v>
+      </c>
+      <c r="M28">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>42914.625</v>
+      </c>
+      <c r="G29" s="5">
+        <v>42990.625</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>42992.625</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="1"/>
+        <v>42990.625</v>
+      </c>
+      <c r="J29">
+        <v>0.98</v>
+      </c>
+      <c r="L29">
+        <v>3646.17</v>
+      </c>
+      <c r="M29">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>42914.625</v>
+      </c>
+      <c r="G30" s="5">
+        <v>42990.625</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>42992.625</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="1"/>
+        <v>42990.625</v>
+      </c>
+      <c r="J30">
+        <v>1.01</v>
+      </c>
+      <c r="L30">
+        <v>3646.17</v>
+      </c>
+      <c r="M30">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>42914.625</v>
+      </c>
+      <c r="G31" s="5">
+        <v>42990.625</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>42992.625</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="1"/>
+        <v>42990.625</v>
+      </c>
+      <c r="J31">
+        <v>0.98</v>
+      </c>
+      <c r="L31">
+        <v>3646.17</v>
+      </c>
+      <c r="M31">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>42895.625</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42919.625</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="0"/>
+        <v>42921.625</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="1"/>
+        <v>42919.625</v>
+      </c>
+      <c r="J32">
+        <v>0.98919567799999997</v>
+      </c>
+      <c r="L32">
+        <v>6664</v>
+      </c>
+      <c r="M32">
+        <v>0.98919567799999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>42888.625</v>
+      </c>
+      <c r="G33" s="5">
+        <v>43067.625</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
+        <v>43069.625</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="1"/>
+        <v>43067.625</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>278.18</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>42858.625</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42916.625</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
+        <v>42918.625</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="1"/>
+        <v>42916.625</v>
+      </c>
+      <c r="J34">
+        <v>1.04</v>
+      </c>
+      <c r="L34">
+        <v>280.37</v>
+      </c>
+      <c r="M34">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>42858.625</v>
+      </c>
+      <c r="G35" s="5">
+        <v>42916.625</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="0"/>
+        <v>42918.625</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="1"/>
+        <v>42916.625</v>
+      </c>
+      <c r="J35">
+        <v>0.96</v>
+      </c>
+      <c r="L35">
+        <v>280.37</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>42831.625</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42919.625</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="0"/>
+        <v>42921.625</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="1"/>
+        <v>42919.625</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>6592</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>42811.625</v>
+      </c>
+      <c r="G37" s="5">
+        <v>42990.625</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="0"/>
+        <v>42992.625</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="1"/>
+        <v>42990.625</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>275.64</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>42684.625</v>
+      </c>
+      <c r="G38" s="5">
+        <v>42772.645833333336</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="0"/>
+        <v>42774.645833333336</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="1"/>
+        <v>42772.645833333336</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>42684.625</v>
+      </c>
+      <c r="G39" s="5">
+        <v>42772.645833333336</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="0"/>
+        <v>42774.645833333336</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="1"/>
+        <v>42772.645833333336</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>42678.625</v>
+      </c>
+      <c r="G40" s="5">
+        <v>42857.645833333336</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="0"/>
+        <v>42859.645833333336</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="1"/>
+        <v>42857.645833333336</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>282.94</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>42621.625</v>
+      </c>
+      <c r="G41" s="5">
+        <v>42709.625</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="0"/>
+        <v>42711.625</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="1"/>
+        <v>42709.625</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>289.2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>42621.625</v>
+      </c>
+      <c r="G42" s="5">
+        <v>42709.625</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="0"/>
+        <v>42711.625</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="1"/>
+        <v>42709.625</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>289.2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>42621.625</v>
+      </c>
+      <c r="G43" s="5">
+        <v>42681.625</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
+        <v>42683.625</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="1"/>
+        <v>42681.625</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>289.2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>42621.625</v>
+      </c>
+      <c r="G44" s="5">
+        <v>42653.625</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>42655.625</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="1"/>
+        <v>42653.625</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>289.2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1147,10 +2994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>